--- a/Supplemental_Tables_PB.xlsx
+++ b/Supplemental_Tables_PB.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="0" windowWidth="14260" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6320" yWindow="0" windowWidth="19060" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S4" sheetId="3" r:id="rId1"/>
-    <sheet name="TableS6" sheetId="2" r:id="rId2"/>
-    <sheet name="TableS7" sheetId="1" r:id="rId3"/>
+    <sheet name="Table S3" sheetId="3" r:id="rId1"/>
+    <sheet name="TableS4" sheetId="2" r:id="rId2"/>
+    <sheet name="TableS5" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Hprime</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Table S7. Population Genetic Statistics of Imprinted Genes</t>
   </si>
   <si>
-    <t>Table S6. Imprinted Genes that are Domestication or Improvement Candidates</t>
-  </si>
-  <si>
     <t>Gene Group</t>
   </si>
   <si>
@@ -89,7 +86,40 @@
     <t>*Total values based on intersection with RefGen1</t>
   </si>
   <si>
-    <t>Table S4.</t>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Retained Syntenic Duplicate</t>
+  </si>
+  <si>
+    <t>Subgenome1</t>
+  </si>
+  <si>
+    <t>Subgenome2</t>
+  </si>
+  <si>
+    <t>MEGs</t>
+  </si>
+  <si>
+    <t>PEGs</t>
+  </si>
+  <si>
+    <t>In Subgenomes</t>
+  </si>
+  <si>
+    <t>Outside Subgenomes</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Bold values indicate statistical significance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S3. Presence of Imprinted Genes and retained syntenic Duplicates in Maize Subgenomes </t>
+  </si>
+  <si>
+    <t>Table S4. Imprinted Genes that are Domestication or Improvement Candidates</t>
   </si>
 </sst>
 </file>
@@ -146,7 +176,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,24 +188,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,17 +554,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7147</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2320</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4498</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B4+B5</f>
+        <v>11645</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C4+C5</f>
+        <v>31</v>
+      </c>
+      <c r="D6" s="4">
+        <f>D4+D5</f>
+        <v>73</v>
+      </c>
+      <c r="E6" s="4">
+        <f>E5+E4</f>
+        <v>4317</v>
+      </c>
+      <c r="F6" s="4">
+        <f>F5+F4</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="4">
+        <f>G5+G4</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" ref="B7:F7" si="0">B8-B6</f>
+        <v>6001</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>7328</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="4">
+        <f>G8-G6</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>17646</v>
+      </c>
+      <c r="C8" s="4">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4">
+        <v>108</v>
+      </c>
+      <c r="E8" s="4">
+        <f>B6</f>
+        <v>11645</v>
+      </c>
+      <c r="F8" s="4">
+        <f>C6</f>
+        <v>31</v>
+      </c>
+      <c r="G8" s="4">
+        <f>D6</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -533,28 +756,28 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -573,7 +796,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -587,7 +810,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -601,7 +824,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -631,25 +854,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -694,109 +917,122 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.61240000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>0.61850000000000005</v>
+        <v>0.83350000000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1449</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.49049999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.61240000000000006</v>
-      </c>
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.83350000000000002</v>
+        <v>0.7883</v>
       </c>
       <c r="C12" s="1">
-        <v>0.97460000000000002</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.1449</v>
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.0569999999999998E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.12989999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>0.7883</v>
+        <v>7.1599999999999997E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>0.91239999999999999</v>
+        <v>8.4799999999999997E-3</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -807,13 +1043,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>0.85019999999999996</v>
+        <v>7.9799999999999992E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>0.93479999999999996</v>
+        <v>6.8649999999999996E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>9.0569999999999998E-2</v>
+        <v>0.71809999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -821,159 +1057,83 @@
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>0.74409999999999998</v>
+        <v>8.7989999999999995E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>0.88280000000000003</v>
+        <v>7.554E-3</v>
       </c>
       <c r="D18" s="3">
-        <v>0.12989999999999999</v>
+        <v>0.85550000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.1399999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
-        <v>7.1599999999999997E-3</v>
+        <v>0.22320000000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>8.4799999999999997E-3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7.9799999999999992E-3</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6.8649999999999996E-3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.71809999999999996</v>
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8.7989999999999995E-3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7.554E-3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.85550000000000004</v>
+      <c r="A24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.21149999999999999</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.17849999999999999</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.25569999999999998</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.23080000000000001</v>
-      </c>
-      <c r="D29" s="2">
-        <v>9.1399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.22320000000000001</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.27629999999999999</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2.8899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>15</v>
+      <c r="A25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Supplemental_Tables_PB.xlsx
+++ b/Supplemental_Tables_PB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="0" windowWidth="19060" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="18280" yWindow="0" windowWidth="19060" windowHeight="20560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table S3" sheetId="3" r:id="rId1"/>
@@ -176,8 +176,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,7 +220,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -217,6 +229,12 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -225,6 +243,12 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -841,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1029,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="1">
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="C16" s="1">
         <v>7.1599999999999997E-3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8.4799999999999997E-3</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -1107,10 +1131,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="C22" s="1">
         <v>0.22320000000000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.27629999999999999</v>
       </c>
       <c r="D22" s="2">
         <v>2.8899999999999999E-2</v>
